--- a/PartnerData/excel/Business.xlsx
+++ b/PartnerData/excel/Business.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381D151-3269-5945-B0AB-BE95D670C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A52083-8C75-1443-BFD4-AD2E71F71382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{E3D35FBD-C195-214B-80E4-1A3AC0E23DF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>식당</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3181,6 +3181,14 @@
   </si>
   <si>
     <t>043-268-4131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3621,7 +3629,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3651,7 +3659,9 @@
       <c r="E1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1">
@@ -3670,6 +3680,9 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="32">
       <c r="A3" s="7" t="s">
@@ -3687,6 +3700,9 @@
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="32" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -3704,6 +3720,9 @@
       <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -3721,6 +3740,9 @@
       <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="32" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -3738,6 +3760,9 @@
       <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="48">
       <c r="A7" s="7" t="s">
@@ -3755,6 +3780,9 @@
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -3772,6 +3800,9 @@
       <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="32">
       <c r="A9" s="7" t="s">
@@ -3789,6 +3820,9 @@
       <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="32" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -3806,6 +3840,9 @@
       <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="48" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -3823,6 +3860,9 @@
       <c r="E11" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
@@ -3840,6 +3880,9 @@
       <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="48" customHeight="1">
       <c r="A13" s="7" t="s">
@@ -3857,6 +3900,9 @@
       <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="128" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3874,6 +3920,9 @@
       <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
@@ -3891,6 +3940,9 @@
       <c r="E15" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
@@ -3908,8 +3960,11 @@
       <c r="E16" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="32">
+    <row r="17" spans="1:6" ht="32">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -3925,8 +3980,11 @@
       <c r="E17" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -3942,8 +4000,11 @@
       <c r="E18" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -3959,8 +4020,11 @@
       <c r="E19" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" ht="32">
+    <row r="20" spans="1:6" ht="32">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -3976,8 +4040,11 @@
       <c r="E20" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" ht="38">
+    <row r="21" spans="1:6" ht="38">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -3993,8 +4060,11 @@
       <c r="E21" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -4010,8 +4080,11 @@
       <c r="E22" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" ht="32">
+    <row r="23" spans="1:6" ht="32">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -4027,8 +4100,11 @@
       <c r="E23" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -4044,8 +4120,11 @@
       <c r="E24" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4140,11 @@
       <c r="E25" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -4078,8 +4160,11 @@
       <c r="E26" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -4095,8 +4180,11 @@
       <c r="E27" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -4112,8 +4200,11 @@
       <c r="E28" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -4129,8 +4220,11 @@
       <c r="E29" s="5" t="s">
         <v>125</v>
       </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -4146,8 +4240,11 @@
       <c r="E30" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" ht="76">
+    <row r="31" spans="1:6" ht="76">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
@@ -4163,8 +4260,11 @@
       <c r="E31" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" ht="114">
+    <row r="32" spans="1:6" ht="114">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -4180,8 +4280,11 @@
       <c r="E32" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" ht="64" customHeight="1">
+    <row r="33" spans="1:6" ht="64" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>139</v>
       </c>
@@ -4197,8 +4300,11 @@
       <c r="E33" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" ht="32" customHeight="1">
+    <row r="34" spans="1:6" ht="32" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>139</v>
       </c>
@@ -4213,6 +4319,9 @@
       </c>
       <c r="E34" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/PartnerData/excel/Business.xlsx
+++ b/PartnerData/excel/Business.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A52083-8C75-1443-BFD4-AD2E71F71382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6859F746-2CD8-164C-AAA8-6480C7A9179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{E3D35FBD-C195-214B-80E4-1A3AC0E23DF6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E3D35FBD-C195-214B-80E4-1A3AC0E23DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,11 +45,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 경영대학 학생 최대 15% 할인 
-2. 가족까지 할인 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -253,11 +248,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 현금(계좌이체)시 닭갈비 인분 수만큼 1,000원 할인 
-2. 단체 모임의 경우(15인 이상), 합산 금액 중 만원 단위 10% 할인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -674,12 +664,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 돼지 한 마리 메뉴 주문 시 쫄면 제공 
-2. 돼지 반 마리 주문 시 음료 1병 제공 
-3. 한 마리 반 주문 시 쫄면, 음료 1병 제공</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -890,11 +874,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 모든 음료 메뉴 1,000원 할인 (디저트, 콤보 메뉴 제외) 
-2. 카페 대관 시 시간당 5,000원 할인 + 평일: 음료 6잔 무료 제공 / 주말: 음료 제공 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>충북 청주시 흥덕구 성봉로 289</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1204,11 +1183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 14시 이후 15,000원 이상 주문 시 디저트 한 개 무료 (3,500원 미만 디저트)
-2. 18시 이후 1인당 음료+크로플 세트 500원 할인, 아메리카노 샷 추가 무료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1720,11 +1694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 테이블 당 음료수 1개 
-2. 현금 계산 시 5% 할인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오작교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1943,11 +1912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 테이블 당 음료 제공 
-2. 50,000원 이상 주문 시 사이드 메뉴 제공 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2049,11 +2013,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 1인당 2만원 이상 주문 시 빙수 제공 
-2. 10인 미만 단체손님 10만원 이상 주문 시 빙수 + 소주 1병 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2353,11 +2312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 테이블 당 음료 1개 기본 증정 
-2. 5만원 이상 주문 시 1만원 이내 안주 택 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>우메다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3069,12 +3023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 4만원 이상 병렌즈 전 품목 30% 할인 (투명/컬러/난시용 렌즈, 케이스 외 용품은 별도 구매, 타 행사 중복 불가, 포인트 사용 X)
-2. 아큐브 전 품목 30% 할인 (포인트 사용 X)
-3. 3대 글로벌 컬러렌즈 20% 할인 (바슈롬/인터로조/알콘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엔비 휘트니스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3158,24 +3106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>헬스 3개월 15만원 
-헬스 6개월 29만원 
-헬스 12개월 48만원 
-태닝 10회 12만원 
-PT 10회 45만원 5만원 추가 시, 헬스 2개월 
-기구 필라테스 6:1, 20회 30만원, 30회 50만원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 3층 대관 할인 
-2. 해시태그 도장으로 쿠폰 5개 적립 시 아메리카노 무료 
-3. 10개 적립 시 모든 음료 중 한 잔 무료 
-4. 배달 요청사항에 '충북대학교 경영대학' : 마들렌 or 더치 서비스 
-5. 아메리카노 테이크아웃 사이즈업 시 500원 할인 
-6. 24시간 운영 시, 23~04시 사이에 한 샷 무료 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3189,6 +3119,54 @@
   </si>
   <si>
     <t>경영대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금(계좌이체)시 닭갈비 인분 수만큼 1,000원 할인 / 단체 모임의 경우(15인 이상), 합산 금액 중 만원 단위 10% 할인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 한 마리 메뉴 주문 시 쫄면 제공 / 돼지 반 마리 주문 시 음료 1병 제공 / 한 마리 반 주문 시 쫄면, 음료 1병 제공</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 음료 메뉴 1,000원 할인 (디저트, 콤보 메뉴 제외) / 카페 대관 시 시간당 5,000원 할인 + 평일: 음료 6잔 무료 제공 / 주말: 음료 제공 없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14시 이후 15,000원 이상 주문 시 디저트 한 개 무료 (3,500원 미만 디저트) / 18시 이후 1인당 음료+크로플 세트 500원 할인, 아메리카노 샷 추가 무료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영대학 학생 최대 15% 할인 / 가족까지 할인 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스 3개월 15만원 / 헬스 6개월 29만원 / 헬스 12개월 48만원 / 태닝 10회 12만원 / PT 10회 45만원 5만원 추가 시, 헬스 2개월 / 기구 필라테 20회 30만원, 30회 50만원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4만원 이상 병렌즈 전 품목 30% 할인 (투명/컬러/난시용 렌즈, 케이스 외 용품은 별도 구매, 타 행사 중복 불가, 포인트 사용 X) / 아큐브 전 품목 30% 할인 (포인트 사용 X) / 3대 글로벌 컬러렌즈 20% 할인 (바슈롬/인터로조/알콘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 당 음료 1개 기본 증정 / 5만원 이상 주문 시 1만원 이내 안주 택 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인당 2만원 이상 주문 시 빙수 제공 / 10인 미만 단체손님 10만원 이상 주문 시 빙수 + 소주 1병 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3층 대관 할인 / 해시태그 도장으로 쿠폰 5개 적립 시 아메리카노 무료 / 10개 적립 시 모든 음료 중 한 잔 무료 / 배달 요청사항에 '충북대학교 경영대학' : 마들렌 or 더치 서비스 / 아메리카노 테이크아웃 사이즈업 시 500원 할인 / 24시간 운영 시, 23~04시 사이에 한 샷 무료 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 당 음료수 1개 / 현금 계산 시 5% 할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테이블 당 음료 제공 / 50,000원 이상 주문 시 사이드 메뉴 제공 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3629,7 +3607,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3645,22 +3623,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -3669,19 +3647,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32">
@@ -3689,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" customHeight="1">
@@ -3709,19 +3687,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1">
@@ -3729,19 +3707,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" customHeight="1">
@@ -3749,39 +3727,39 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="48">
+    <row r="7" spans="1:7" ht="32">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1">
@@ -3789,539 +3767,539 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32">
       <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="128" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="32">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="38">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="32">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="76">
       <c r="A31" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>142</v>
-      </c>
     </row>
-    <row r="32" spans="1:6" ht="114">
+    <row r="32" spans="1:6" ht="57">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="64" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
